--- a/output_data/charts/shares-Union.xlsx
+++ b/output_data/charts/shares-Union.xlsx
@@ -16,40 +16,40 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>Construction</t>
+    <t>Unclassified</t>
+  </si>
+  <si>
+    <t>Trade, transportation, and utilities</t>
+  </si>
+  <si>
+    <t>Public administration</t>
+  </si>
+  <si>
+    <t>Professional and business services</t>
+  </si>
+  <si>
+    <t>Other services</t>
+  </si>
+  <si>
+    <t>Natural resources and mining</t>
+  </si>
+  <si>
+    <t>Manufacturing</t>
+  </si>
+  <si>
+    <t>Leisure and hospitality</t>
+  </si>
+  <si>
+    <t>Information</t>
+  </si>
+  <si>
+    <t>Financial activities</t>
   </si>
   <si>
     <t>Education and health services</t>
   </si>
   <si>
-    <t>Financial activities</t>
-  </si>
-  <si>
-    <t>Information</t>
-  </si>
-  <si>
-    <t>Leisure and hospitality</t>
-  </si>
-  <si>
-    <t>Manufacturing</t>
-  </si>
-  <si>
-    <t>Natural resources and mining</t>
-  </si>
-  <si>
-    <t>Other services</t>
-  </si>
-  <si>
-    <t>Professional and business services</t>
-  </si>
-  <si>
-    <t>Public administration</t>
-  </si>
-  <si>
-    <t>Trade, transportation, and utilities</t>
-  </si>
-  <si>
-    <t>Unclassified</t>
+    <t>Construction</t>
   </si>
   <si>
     <t>Year</t>
@@ -169,14 +169,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Construction</c:v>
+                  <c:v>Unclassified</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="1F77B4"/>
+              <a:srgbClr val="68AFFC"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -212,20 +212,17 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>3.032553158992339</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.282528687868953</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.742533960780501</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.642333288715312</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.706039579767451</c:v>
+                <c:pt idx="1">
+                  <c:v>0.00608439049061871</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.003177023765969724</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.003068520052973548</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.03303601554049713</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -240,14 +237,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Education and health services</c:v>
+                  <c:v>Trade, transportation, and utilities</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="FF7F0E"/>
+              <a:srgbClr val="4233A6"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -284,19 +281,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>11.2094570618943</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11.66377657051606</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.0250349541954</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11.97950228680872</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12.32843799127463</c:v>
+                  <c:v>14.83010575252735</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.97456723311942</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.72703012783059</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.79741630724657</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.62020601578763</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -311,14 +308,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Financial activities</c:v>
+                  <c:v>Public administration</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="2CA02C"/>
+              <a:srgbClr val="85E5DD"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -355,19 +352,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.612807415105614</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.764473200053756</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.883975062679317</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.000675074538753</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.117307914207703</c:v>
+                  <c:v>1.817749749722444</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.837485965099101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.046003290539935</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.596305502084988</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.45676785341479</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -382,14 +379,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Information</c:v>
+                  <c:v>Professional and business services</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="D62728"/>
+              <a:srgbClr val="2A6866"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -426,19 +423,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.3326600569347567</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.3498524712203717</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.3462955742020991</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.3252631169957232</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5045499918950511</c:v>
+                  <c:v>32.61554000971418</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.6209728678704</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.42648368533616</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.71079198659597</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.9511066943764</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -453,14 +450,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Leisure and hospitality</c:v>
+                  <c:v>Other services</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="9467BD"/>
+              <a:srgbClr val="66DE78"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -497,19 +494,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5.194843732935432</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.488120238941593</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.394586394059342</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.968271503033542</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.255818815605489</c:v>
+                  <c:v>2.141499384093162</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.345532534133504</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.21756258864686</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.166375173828181</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.186383164886564</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -524,14 +521,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Manufacturing</c:v>
+                  <c:v>Natural resources and mining</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="8C564B"/>
+              <a:srgbClr val="15974D"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -568,19 +565,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>25.44552693408809</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>26.68917888709898</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>27.08095058112592</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>25.73874620434211</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25.86419195635982</c:v>
+                  <c:v>1.767256743992336</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.977426953587249</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.106366756837924</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.071251035757142</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.976154006883968</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -595,14 +592,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Natural resources and mining</c:v>
+                  <c:v>Manufacturing</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="E377C2"/>
+              <a:srgbClr val="B4D170"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -639,19 +636,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.767256743992336</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.977426953587249</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.106366756837924</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.071251035757142</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.976154006883968</c:v>
+                  <c:v>25.44552693408809</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.68917888709898</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.08095058112592</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.73874620434211</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.86419195635982</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -666,14 +663,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Other services</c:v>
+                  <c:v>Leisure and hospitality</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="7F7F7F"/>
+              <a:srgbClr val="683C00"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -710,19 +707,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.141499384093162</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.345532534133504</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.21756258864686</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.166375173828181</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.186383164886564</c:v>
+                  <c:v>5.194843732935432</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.488120238941593</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.394586394059342</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.968271503033542</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.255818815605489</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -737,14 +734,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Professional and business services</c:v>
+                  <c:v>Information</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="BCBD22"/>
+              <a:srgbClr val="CA7E54"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -781,19 +778,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>32.61554000971418</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>28.6209728678704</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>26.42648368533616</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24.71079198659597</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>23.9511066943764</c:v>
+                  <c:v>0.3326600569347567</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3498524712203717</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3462955742020991</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3252631169957232</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5045499918950511</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -808,14 +805,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Public administration</c:v>
+                  <c:v>Financial activities</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="17BECF"/>
+              <a:srgbClr val="821F48"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -852,19 +849,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.817749749722444</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.837485965099101</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.046003290539935</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.596305502084988</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.45676785341479</c:v>
+                  <c:v>1.612807415105614</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.764473200053756</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.883975062679317</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.000675074538753</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.117307914207703</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -879,14 +876,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Trade, transportation, and utilities</c:v>
+                  <c:v>Education and health services</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="8DD3C7"/>
+              <a:srgbClr val="F65B68"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -923,19 +920,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>14.83010575252735</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15.97456723311942</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16.72703012783059</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>17.79741630724657</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>17.62020601578763</c:v>
+                  <c:v>11.2094570618943</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.66377657051606</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.0250349541954</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.97950228680872</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.32843799127463</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -950,14 +947,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Unclassified</c:v>
+                  <c:v>Construction</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="FFFFB3"/>
+              <a:srgbClr val="EBCECB"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -993,17 +990,20 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="1">
-                  <c:v>0.00608439049061871</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.003177023765969724</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.003068520052973548</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.03303601554049713</c:v>
+                <c:pt idx="0">
+                  <c:v>3.032553158992339</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.282528687868953</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.742533960780501</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.642333288715312</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.706039579767451</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1048,7 +1048,6 @@
           <c:min val="0"/>
         </c:scaling>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1120,15 +1119,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1442,19 +1441,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="30.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="30.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="13" width="30.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -1502,38 +1489,38 @@
       <c r="A2" s="2">
         <v>2018</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C2" s="1">
+        <v>14.83010575252735</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1.817749749722444</v>
+      </c>
+      <c r="E2" s="1">
+        <v>32.61554000971418</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2.141499384093162</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1.767256743992336</v>
+      </c>
+      <c r="H2" s="1">
+        <v>25.44552693408809</v>
+      </c>
+      <c r="I2" s="1">
+        <v>5.194843732935432</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.3326600569347567</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1.612807415105614</v>
+      </c>
+      <c r="L2" s="1">
+        <v>11.2094570618943</v>
+      </c>
+      <c r="M2" s="1">
         <v>3.032553158992339</v>
-      </c>
-      <c r="C2" s="1">
-        <v>11.2094570618943</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1.612807415105614</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.3326600569347567</v>
-      </c>
-      <c r="F2" s="1">
-        <v>5.194843732935432</v>
-      </c>
-      <c r="G2" s="1">
-        <v>25.44552693408809</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1.767256743992336</v>
-      </c>
-      <c r="I2" s="1">
-        <v>2.141499384093162</v>
-      </c>
-      <c r="J2" s="1">
-        <v>32.61554000971418</v>
-      </c>
-      <c r="K2" s="1">
-        <v>1.817749749722444</v>
-      </c>
-      <c r="L2" s="1">
-        <v>14.83010575252735</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1541,40 +1528,40 @@
         <v>2019</v>
       </c>
       <c r="B3" s="1">
+        <v>0.00608439049061871</v>
+      </c>
+      <c r="C3" s="1">
+        <v>15.97456723311942</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.837485965099101</v>
+      </c>
+      <c r="E3" s="1">
+        <v>28.6209728678704</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2.345532534133504</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1.977426953587249</v>
+      </c>
+      <c r="H3" s="1">
+        <v>26.68917888709898</v>
+      </c>
+      <c r="I3" s="1">
+        <v>5.488120238941593</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.3498524712203717</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1.764473200053756</v>
+      </c>
+      <c r="L3" s="1">
+        <v>11.66377657051606</v>
+      </c>
+      <c r="M3" s="1">
         <v>3.282528687868953</v>
-      </c>
-      <c r="C3" s="1">
-        <v>11.66377657051606</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1.764473200053756</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.3498524712203717</v>
-      </c>
-      <c r="F3" s="1">
-        <v>5.488120238941593</v>
-      </c>
-      <c r="G3" s="1">
-        <v>26.68917888709898</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1.977426953587249</v>
-      </c>
-      <c r="I3" s="1">
-        <v>2.345532534133504</v>
-      </c>
-      <c r="J3" s="1">
-        <v>28.6209728678704</v>
-      </c>
-      <c r="K3" s="1">
-        <v>1.837485965099101</v>
-      </c>
-      <c r="L3" s="1">
-        <v>15.97456723311942</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0.00608439049061871</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1582,40 +1569,40 @@
         <v>2020</v>
       </c>
       <c r="B4" s="1">
+        <v>0.003177023765969724</v>
+      </c>
+      <c r="C4" s="1">
+        <v>16.72703012783059</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2.046003290539935</v>
+      </c>
+      <c r="E4" s="1">
+        <v>26.42648368533616</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2.21756258864686</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2.106366756837924</v>
+      </c>
+      <c r="H4" s="1">
+        <v>27.08095058112592</v>
+      </c>
+      <c r="I4" s="1">
+        <v>5.394586394059342</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.3462955742020991</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1.883975062679317</v>
+      </c>
+      <c r="L4" s="1">
+        <v>12.0250349541954</v>
+      </c>
+      <c r="M4" s="1">
         <v>3.742533960780501</v>
-      </c>
-      <c r="C4" s="1">
-        <v>12.0250349541954</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1.883975062679317</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.3462955742020991</v>
-      </c>
-      <c r="F4" s="1">
-        <v>5.394586394059342</v>
-      </c>
-      <c r="G4" s="1">
-        <v>27.08095058112592</v>
-      </c>
-      <c r="H4" s="1">
-        <v>2.106366756837924</v>
-      </c>
-      <c r="I4" s="1">
-        <v>2.21756258864686</v>
-      </c>
-      <c r="J4" s="1">
-        <v>26.42648368533616</v>
-      </c>
-      <c r="K4" s="1">
-        <v>2.046003290539935</v>
-      </c>
-      <c r="L4" s="1">
-        <v>16.72703012783059</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0.003177023765969724</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1623,40 +1610,40 @@
         <v>2021</v>
       </c>
       <c r="B5" s="1">
+        <v>0.003068520052973548</v>
+      </c>
+      <c r="C5" s="1">
+        <v>17.79741630724657</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3.596305502084988</v>
+      </c>
+      <c r="E5" s="1">
+        <v>24.71079198659597</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2.166375173828181</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2.071251035757142</v>
+      </c>
+      <c r="H5" s="1">
+        <v>25.73874620434211</v>
+      </c>
+      <c r="I5" s="1">
+        <v>5.968271503033542</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.3252631169957232</v>
+      </c>
+      <c r="K5" s="1">
+        <v>2.000675074538753</v>
+      </c>
+      <c r="L5" s="1">
+        <v>11.97950228680872</v>
+      </c>
+      <c r="M5" s="1">
         <v>3.642333288715312</v>
-      </c>
-      <c r="C5" s="1">
-        <v>11.97950228680872</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2.000675074538753</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.3252631169957232</v>
-      </c>
-      <c r="F5" s="1">
-        <v>5.968271503033542</v>
-      </c>
-      <c r="G5" s="1">
-        <v>25.73874620434211</v>
-      </c>
-      <c r="H5" s="1">
-        <v>2.071251035757142</v>
-      </c>
-      <c r="I5" s="1">
-        <v>2.166375173828181</v>
-      </c>
-      <c r="J5" s="1">
-        <v>24.71079198659597</v>
-      </c>
-      <c r="K5" s="1">
-        <v>3.596305502084988</v>
-      </c>
-      <c r="L5" s="1">
-        <v>17.79741630724657</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0.003068520052973548</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1664,40 +1651,40 @@
         <v>2022</v>
       </c>
       <c r="B6" s="1">
+        <v>0.03303601554049713</v>
+      </c>
+      <c r="C6" s="1">
+        <v>17.62020601578763</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3.45676785341479</v>
+      </c>
+      <c r="E6" s="1">
+        <v>23.9511066943764</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2.186383164886564</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1.976154006883968</v>
+      </c>
+      <c r="H6" s="1">
+        <v>25.86419195635982</v>
+      </c>
+      <c r="I6" s="1">
+        <v>6.255818815605489</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.5045499918950511</v>
+      </c>
+      <c r="K6" s="1">
+        <v>2.117307914207703</v>
+      </c>
+      <c r="L6" s="1">
+        <v>12.32843799127463</v>
+      </c>
+      <c r="M6" s="1">
         <v>3.706039579767451</v>
-      </c>
-      <c r="C6" s="1">
-        <v>12.32843799127463</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2.117307914207703</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.5045499918950511</v>
-      </c>
-      <c r="F6" s="1">
-        <v>6.255818815605489</v>
-      </c>
-      <c r="G6" s="1">
-        <v>25.86419195635982</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1.976154006883968</v>
-      </c>
-      <c r="I6" s="1">
-        <v>2.186383164886564</v>
-      </c>
-      <c r="J6" s="1">
-        <v>23.9511066943764</v>
-      </c>
-      <c r="K6" s="1">
-        <v>3.45676785341479</v>
-      </c>
-      <c r="L6" s="1">
-        <v>17.62020601578763</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0.03303601554049713</v>
       </c>
     </row>
   </sheetData>
